--- a/data/Sample_Paragraphs.xlsx
+++ b/data/Sample_Paragraphs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">Book Title</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
   </si>
   <si>
     <t xml:space="preserve">Author</t>
@@ -45,6 +48,9 @@
     <t xml:space="preserve">Mr. Springer</t>
   </si>
   <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Updike</t>
   </si>
   <si>
@@ -52,7 +58,7 @@
   </si>
   <si>
     <t xml:space="preserve">“What’s the matter?” I says. “I never knew you to be this anxious about anybody. You must expect some money from Sarah.”
-“She said she —” she says. “Please, Jason,” she shays, “Did I?”
+“She said she —” Emily says. “Please, Jason,” she shays, “Did I?”
 “You must have been to school today, after all,” I says, “Somewhere where they taught you to say please. Wait a minute, while I wait on that customer.”
 I went and waited on him. When I turned to come back she was out of sight behind the desk. I ran. I ran around the  desk and caught her as she jered her hand out of the drawer. I took the letter away from her, beating her knuckles on the desk until she let go.
 “You would, would you?” I says.
@@ -63,7 +69,10 @@
 “She said she would,” she says, “Give it to me. Please, Jason. I won't ever ask you anything again, if you’ll give it to me this time.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarah</t>
+    <t xml:space="preserve">Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
   </si>
   <si>
     <t xml:space="preserve">William Faulkner</t>
@@ -341,22 +350,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,131 +378,161 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="507.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="235.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="458" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="297.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="778.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="458" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="272.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="495.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/Sample_Paragraphs.xlsx
+++ b/data/Sample_Paragraphs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t xml:space="preserve">Book Title</t>
   </si>
@@ -37,10 +37,13 @@
     <t xml:space="preserve">Author</t>
   </si>
   <si>
+    <t xml:space="preserve">Katia’s notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rabbit Angstrom: Rabbit, Run</t>
   </si>
   <si>
-    <t xml:space="preserve">The straight path is made smooth. Mr. Springer had been paying rent on the apartment all along, it turns out; he is a personal friend of the landlord and had arranged it without troubling his daughter. He always had a hunch Harry would come back but didn't want to advertise it in case he was wrong. Harry and Nelson move in and start housekeeping. Rabbit has a gift for housekeeping; the sensation of dust sucking into the vacuum cleaner, down the cloth hose, into a paper bag that when it is full of compact gray fluff will pop the cover of the Electrolux like a gentleman tipping his hat, pleases him. He was not entirely miscast as a barker for the MagiPeel Peeler; he has an instinctive taste for the small appliances of civilization, the little grinders and slicers and holders. Perhaps the oldest child should always be a girl; Mim, coming after him to the Angstrom household, was never exposed direct to the bright heart of the kitchen, but was always in his shadow with the housework, and sullen about assuming her share, which eventually became the greater share, because he was, after all, a boy. He supposes it will be the same with Nelson and Rebecca.
+    <t xml:space="preserve">The straight path is made smooth. Mr. Springer had been paying rent on the apartment all along, it turns out; he is a personal friend of the landlord and had arranged it without troubling his daughter. He always had a hunch Harry would come back but didn't want to advertise it in case he was wrong. Harry and Nelson move in and start housekeeping. Rabbit has a gift for housekeeping; the sensation of dust sucking into the vacuum cleaner, down the cloth hose, into a paper bag that when it is full of compact gray fluff will pop the cover of the Electrolux like a gentleman tipping his hat, pleases him. He was not entirely miscast as a barker for the MagiPeel Peeler; he has an instinctive taste for the small appliances of civilization, the little grinders and slicers and holders. Perhaps the oldest child should always be a girl; Mim, coming after him to the Angstrom household, was never exposed direct to the bright heart of the kitchen, but was always in his shadow with the housework, and sullen about assuming her share, which eventually became the greater share, because he was, after all, a boy. He supposes it will be the same with Nelson and Rebecca. Mr. Springer kept up the rent on their apartment and now has promised him a job selling cars in one of his lots. He owns four lots in Brewer and vicinity; Rabbit had no idea he was that much of an operator. He's really kind of a jerk but a successful jerk at least; at any rate he thinks he, Harry Angstrom, has got off pretty easily. His mother's hard arched nose and steamed spectacles glitter bitterly. Her disapproval nicks him whenever she turns from the sink.
 Nelson is a help. Closer to three now than two, the child can carry out orders that do not take him out of the room, understands that his toys belong in the bushel basket, and feels the happiness in cleanness, order, and light. The June breeze sighs at the screens of the long-closed windows. The sun dots the mesh with hundreds of sparkling T's and L's. Beyond the windows Wilbur Street falls away. The flat tin-and-tar roofs of their neighbors, weathered into gentle corrugations, glitter with mysterious pockets of rubble, candy-bar wrappers and a pool of glass flakes, litter that must have fallen from the clouds or been brought by birds to this street in the sky, planted with television aerials and hooded chimneys the size of fire hydrants. There are three of these roofs on the down side, tipped like terraces for drainage, three broad dirty steps leading to a brink below which the better homes begin, the stucco and brick forts, rugged with porches and dormer windows and lightning rods, guarded by conifers, protected by treaties with banks and firms of lawyers. It was strange that a row of tenements had been set above them; they had been tricked by growth. But in a town built against a mountain, height was too common to be precious; above them all there was the primitive ridge, the dark slum of forest, separated from the decent part of town by a band of unpaved lanes, derelict farmhouses, a cemetery, and a few raw young developments. Wilbur Street was paved for a block past Rabbit's door, and then became a street of mud and gravel between two short rows of ranch-houses of alternating color erected in 1953 on scraped red earth that even now is unsteadily pinned by the blades of grass that speckle it, so that after a good rain the gutter-water flows orange down Wilbur Street. The land grows steeper still, and the woods begin.
 </t>
   </si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">John Updike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated the first paragraph – read in the wiki here https://docs.google.com/document/d/1hJM0hmX1CDf_iig0HXfOVgH8mKLZarPKSWU-kERd6vk/edit</t>
   </si>
   <si>
     <t xml:space="preserve">The Sound and Fury</t>
@@ -350,12 +356,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -381,162 +387,171 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="507.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="592" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="235.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="458" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="297.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="778.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="458" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="272.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="495.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://docs.google.com/document/d/1hJM0hmX1CDf_iig0HXfOVgH8mKLZarPKSWU-kERd6vk/edit"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
